--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important\M.Teh thesis\For ML pushpendra\ML for thesis\ML-in-Friction-Stir-Welding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important\M.Teh thesis\For ML pushpendra\ML for thesis\ML-in-Friction-Stir-Welding\ML-in-Friction-Stir-Welding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Run order</t>
+  </si>
+  <si>
+    <t>Welding Speed (mm/min)</t>
+  </si>
+  <si>
+    <t>Tool Rotational Speed (mm/min)</t>
+  </si>
+  <si>
+    <t>Tool Shoulder Diameter (mm)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,51 +433,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
-        <v>164</v>
-      </c>
-      <c r="C1" s="2">
-        <v>710</v>
-      </c>
-      <c r="D1" s="3">
-        <v>15</v>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2">
-        <v>560</v>
+        <v>710</v>
       </c>
       <c r="D2" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2">
-        <v>560</v>
+        <v>710</v>
       </c>
       <c r="D3" s="3">
         <v>15</v>
@@ -472,13 +491,13 @@
     </row>
     <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2">
-        <v>450</v>
+        <v>710</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
@@ -486,41 +505,41 @@
     </row>
     <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="C5" s="2">
-        <v>450</v>
+        <v>710</v>
       </c>
       <c r="D5" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="D6" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="D7" s="3">
         <v>18</v>
@@ -528,77 +547,77 @@
     </row>
     <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>104</v>
       </c>
       <c r="C8" s="2">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="D8" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
         <v>104</v>
       </c>
       <c r="C9" s="2">
-        <v>710</v>
+        <v>560</v>
       </c>
       <c r="D9" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
         <v>208</v>
       </c>
       <c r="C10" s="2">
-        <v>710</v>
+        <v>560</v>
       </c>
       <c r="D10" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2">
         <v>208</v>
       </c>
       <c r="C11" s="2">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="D11" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="C12" s="2">
         <v>560</v>
       </c>
       <c r="D12" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2">
         <v>208</v>
@@ -611,198 +630,1346 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6">
-        <v>164</v>
-      </c>
-      <c r="C14" s="6">
-        <v>560</v>
-      </c>
-      <c r="D14" s="7">
-        <v>20</v>
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>104</v>
+      </c>
+      <c r="C14" s="2">
+        <v>450</v>
+      </c>
+      <c r="D14" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>104</v>
-      </c>
-      <c r="C15" s="1">
-        <v>560</v>
-      </c>
-      <c r="D15" s="4">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>104</v>
+      </c>
+      <c r="C15" s="2">
+        <v>450</v>
+      </c>
+      <c r="D15" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>208</v>
-      </c>
-      <c r="C16" s="1">
-        <v>560</v>
-      </c>
-      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>104</v>
+      </c>
+      <c r="C16" s="2">
+        <v>450</v>
+      </c>
+      <c r="D16" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>208</v>
-      </c>
-      <c r="C17" s="1">
-        <v>710</v>
-      </c>
-      <c r="D17" s="4">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>104</v>
+      </c>
+      <c r="C17" s="2">
+        <v>450</v>
+      </c>
+      <c r="D17" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>208</v>
-      </c>
-      <c r="C18" s="1">
-        <v>710</v>
-      </c>
-      <c r="D18" s="4">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>208</v>
+      </c>
+      <c r="C18" s="2">
+        <v>450</v>
+      </c>
+      <c r="D18" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>104</v>
-      </c>
-      <c r="C19" s="1">
-        <v>710</v>
-      </c>
-      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>208</v>
+      </c>
+      <c r="C19" s="2">
+        <v>450</v>
+      </c>
+      <c r="D19" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>164</v>
-      </c>
-      <c r="C20" s="1">
-        <v>450</v>
-      </c>
-      <c r="D20" s="4">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>208</v>
+      </c>
+      <c r="C20" s="2">
+        <v>450</v>
+      </c>
+      <c r="D20" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>164</v>
-      </c>
-      <c r="C21" s="1">
-        <v>450</v>
-      </c>
-      <c r="D21" s="4">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>208</v>
+      </c>
+      <c r="C21" s="2">
+        <v>450</v>
+      </c>
+      <c r="D21" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <v>164</v>
-      </c>
-      <c r="C22" s="1">
-        <v>710</v>
-      </c>
-      <c r="D22" s="4">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="B22" s="2">
+        <v>208</v>
+      </c>
+      <c r="C22" s="2">
+        <v>450</v>
+      </c>
+      <c r="D22" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <v>104</v>
-      </c>
-      <c r="C23" s="1">
-        <v>560</v>
-      </c>
-      <c r="D23" s="4">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>208</v>
+      </c>
+      <c r="C23" s="2">
+        <v>450</v>
+      </c>
+      <c r="D23" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1">
-        <v>104</v>
-      </c>
-      <c r="C24" s="1">
-        <v>560</v>
-      </c>
-      <c r="D24" s="4">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <v>208</v>
+      </c>
+      <c r="C24" s="2">
+        <v>450</v>
+      </c>
+      <c r="D24" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
-        <v>104</v>
-      </c>
-      <c r="C25" s="1">
-        <v>710</v>
-      </c>
-      <c r="D25" s="4">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>208</v>
+      </c>
+      <c r="C25" s="2">
+        <v>450</v>
+      </c>
+      <c r="D25" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>104</v>
-      </c>
-      <c r="C26" s="1">
-        <v>450</v>
-      </c>
-      <c r="D26" s="4">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B26" s="2">
+        <v>164</v>
+      </c>
+      <c r="C26" s="2">
+        <v>450</v>
+      </c>
+      <c r="D26" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2">
+        <v>164</v>
+      </c>
+      <c r="C27" s="2">
+        <v>450</v>
+      </c>
+      <c r="D27" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2">
+        <v>164</v>
+      </c>
+      <c r="C28" s="2">
+        <v>450</v>
+      </c>
+      <c r="D28" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2">
+        <v>164</v>
+      </c>
+      <c r="C29" s="2">
+        <v>450</v>
+      </c>
+      <c r="D29" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2">
+        <v>104</v>
+      </c>
+      <c r="C30" s="2">
+        <v>450</v>
+      </c>
+      <c r="D30" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2">
+        <v>104</v>
+      </c>
+      <c r="C31" s="2">
+        <v>450</v>
+      </c>
+      <c r="D31" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>104</v>
+      </c>
+      <c r="C32" s="2">
+        <v>450</v>
+      </c>
+      <c r="D32" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2">
+        <v>104</v>
+      </c>
+      <c r="C33" s="2">
+        <v>450</v>
+      </c>
+      <c r="D33" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2">
+        <v>104</v>
+      </c>
+      <c r="C34" s="2">
+        <v>710</v>
+      </c>
+      <c r="D34" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2">
+        <v>104</v>
+      </c>
+      <c r="C35" s="2">
+        <v>710</v>
+      </c>
+      <c r="D35" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2">
+        <v>104</v>
+      </c>
+      <c r="C36" s="2">
+        <v>710</v>
+      </c>
+      <c r="D36" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2">
+        <v>104</v>
+      </c>
+      <c r="C37" s="2">
+        <v>710</v>
+      </c>
+      <c r="D37" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2">
+        <v>208</v>
+      </c>
+      <c r="C38" s="2">
+        <v>710</v>
+      </c>
+      <c r="D38" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2">
+        <v>208</v>
+      </c>
+      <c r="C39" s="2">
+        <v>710</v>
+      </c>
+      <c r="D39" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2">
+        <v>208</v>
+      </c>
+      <c r="C40" s="2">
+        <v>710</v>
+      </c>
+      <c r="D40" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2">
+        <v>208</v>
+      </c>
+      <c r="C41" s="2">
+        <v>710</v>
+      </c>
+      <c r="D41" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>11</v>
+      </c>
+      <c r="B42" s="2">
+        <v>208</v>
+      </c>
+      <c r="C42" s="2">
+        <v>450</v>
+      </c>
+      <c r="D42" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>11</v>
+      </c>
+      <c r="B43" s="2">
+        <v>208</v>
+      </c>
+      <c r="C43" s="2">
+        <v>450</v>
+      </c>
+      <c r="D43" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>11</v>
+      </c>
+      <c r="B44" s="2">
+        <v>208</v>
+      </c>
+      <c r="C44" s="2">
+        <v>450</v>
+      </c>
+      <c r="D44" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>11</v>
+      </c>
+      <c r="B45" s="2">
+        <v>208</v>
+      </c>
+      <c r="C45" s="2">
+        <v>450</v>
+      </c>
+      <c r="D45" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>12</v>
+      </c>
+      <c r="B46" s="2">
+        <v>164</v>
+      </c>
+      <c r="C46" s="2">
+        <v>560</v>
+      </c>
+      <c r="D46" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2">
+        <v>164</v>
+      </c>
+      <c r="C47" s="2">
+        <v>560</v>
+      </c>
+      <c r="D47" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2">
+        <v>164</v>
+      </c>
+      <c r="C48" s="2">
+        <v>560</v>
+      </c>
+      <c r="D48" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2">
+        <v>164</v>
+      </c>
+      <c r="C49" s="2">
+        <v>560</v>
+      </c>
+      <c r="D49" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2">
+        <v>208</v>
+      </c>
+      <c r="C50" s="2">
+        <v>560</v>
+      </c>
+      <c r="D50" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>13</v>
+      </c>
+      <c r="B51" s="2">
+        <v>208</v>
+      </c>
+      <c r="C51" s="2">
+        <v>560</v>
+      </c>
+      <c r="D51" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>13</v>
+      </c>
+      <c r="B52" s="2">
+        <v>208</v>
+      </c>
+      <c r="C52" s="2">
+        <v>560</v>
+      </c>
+      <c r="D52" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>13</v>
+      </c>
+      <c r="B53" s="2">
+        <v>208</v>
+      </c>
+      <c r="C53" s="2">
+        <v>560</v>
+      </c>
+      <c r="D53" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>14</v>
+      </c>
+      <c r="B54" s="6">
+        <v>164</v>
+      </c>
+      <c r="C54" s="6">
+        <v>560</v>
+      </c>
+      <c r="D54" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>14</v>
+      </c>
+      <c r="B55" s="6">
+        <v>164</v>
+      </c>
+      <c r="C55" s="6">
+        <v>560</v>
+      </c>
+      <c r="D55" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>14</v>
+      </c>
+      <c r="B56" s="6">
+        <v>164</v>
+      </c>
+      <c r="C56" s="6">
+        <v>560</v>
+      </c>
+      <c r="D56" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>14</v>
+      </c>
+      <c r="B57" s="6">
+        <v>164</v>
+      </c>
+      <c r="C57" s="6">
+        <v>560</v>
+      </c>
+      <c r="D57" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>15</v>
+      </c>
+      <c r="B58" s="1">
+        <v>104</v>
+      </c>
+      <c r="C58" s="1">
+        <v>560</v>
+      </c>
+      <c r="D58" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>15</v>
+      </c>
+      <c r="B59" s="1">
+        <v>104</v>
+      </c>
+      <c r="C59" s="1">
+        <v>560</v>
+      </c>
+      <c r="D59" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>15</v>
+      </c>
+      <c r="B60" s="1">
+        <v>104</v>
+      </c>
+      <c r="C60" s="1">
+        <v>560</v>
+      </c>
+      <c r="D60" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>15</v>
+      </c>
+      <c r="B61" s="1">
+        <v>104</v>
+      </c>
+      <c r="C61" s="1">
+        <v>560</v>
+      </c>
+      <c r="D61" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>16</v>
+      </c>
+      <c r="B62" s="1">
+        <v>208</v>
+      </c>
+      <c r="C62" s="1">
+        <v>560</v>
+      </c>
+      <c r="D62" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>16</v>
+      </c>
+      <c r="B63" s="1">
+        <v>208</v>
+      </c>
+      <c r="C63" s="1">
+        <v>560</v>
+      </c>
+      <c r="D63" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>16</v>
+      </c>
+      <c r="B64" s="1">
+        <v>208</v>
+      </c>
+      <c r="C64" s="1">
+        <v>560</v>
+      </c>
+      <c r="D64" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>16</v>
+      </c>
+      <c r="B65" s="1">
+        <v>208</v>
+      </c>
+      <c r="C65" s="1">
+        <v>560</v>
+      </c>
+      <c r="D65" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>17</v>
+      </c>
+      <c r="B66" s="1">
+        <v>208</v>
+      </c>
+      <c r="C66" s="1">
+        <v>710</v>
+      </c>
+      <c r="D66" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>17</v>
+      </c>
+      <c r="B67" s="1">
+        <v>208</v>
+      </c>
+      <c r="C67" s="1">
+        <v>710</v>
+      </c>
+      <c r="D67" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>17</v>
+      </c>
+      <c r="B68" s="1">
+        <v>208</v>
+      </c>
+      <c r="C68" s="1">
+        <v>710</v>
+      </c>
+      <c r="D68" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>17</v>
+      </c>
+      <c r="B69" s="1">
+        <v>208</v>
+      </c>
+      <c r="C69" s="1">
+        <v>710</v>
+      </c>
+      <c r="D69" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>18</v>
+      </c>
+      <c r="B70" s="1">
+        <v>208</v>
+      </c>
+      <c r="C70" s="1">
+        <v>710</v>
+      </c>
+      <c r="D70" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>18</v>
+      </c>
+      <c r="B71" s="1">
+        <v>208</v>
+      </c>
+      <c r="C71" s="1">
+        <v>710</v>
+      </c>
+      <c r="D71" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>18</v>
+      </c>
+      <c r="B72" s="1">
+        <v>208</v>
+      </c>
+      <c r="C72" s="1">
+        <v>710</v>
+      </c>
+      <c r="D72" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>18</v>
+      </c>
+      <c r="B73" s="1">
+        <v>208</v>
+      </c>
+      <c r="C73" s="1">
+        <v>710</v>
+      </c>
+      <c r="D73" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>19</v>
+      </c>
+      <c r="B74" s="1">
+        <v>104</v>
+      </c>
+      <c r="C74" s="1">
+        <v>710</v>
+      </c>
+      <c r="D74" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>19</v>
+      </c>
+      <c r="B75" s="1">
+        <v>104</v>
+      </c>
+      <c r="C75" s="1">
+        <v>710</v>
+      </c>
+      <c r="D75" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>19</v>
+      </c>
+      <c r="B76" s="1">
+        <v>104</v>
+      </c>
+      <c r="C76" s="1">
+        <v>710</v>
+      </c>
+      <c r="D76" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>19</v>
+      </c>
+      <c r="B77" s="1">
+        <v>104</v>
+      </c>
+      <c r="C77" s="1">
+        <v>710</v>
+      </c>
+      <c r="D77" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>20</v>
+      </c>
+      <c r="B78" s="1">
+        <v>164</v>
+      </c>
+      <c r="C78" s="1">
+        <v>450</v>
+      </c>
+      <c r="D78" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>20</v>
+      </c>
+      <c r="B79" s="1">
+        <v>164</v>
+      </c>
+      <c r="C79" s="1">
+        <v>450</v>
+      </c>
+      <c r="D79" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>20</v>
+      </c>
+      <c r="B80" s="1">
+        <v>164</v>
+      </c>
+      <c r="C80" s="1">
+        <v>450</v>
+      </c>
+      <c r="D80" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>20</v>
+      </c>
+      <c r="B81" s="1">
+        <v>164</v>
+      </c>
+      <c r="C81" s="1">
+        <v>450</v>
+      </c>
+      <c r="D81" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>21</v>
+      </c>
+      <c r="B82" s="1">
+        <v>164</v>
+      </c>
+      <c r="C82" s="1">
+        <v>450</v>
+      </c>
+      <c r="D82" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>21</v>
+      </c>
+      <c r="B83" s="1">
+        <v>164</v>
+      </c>
+      <c r="C83" s="1">
+        <v>450</v>
+      </c>
+      <c r="D83" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>21</v>
+      </c>
+      <c r="B84" s="1">
+        <v>164</v>
+      </c>
+      <c r="C84" s="1">
+        <v>450</v>
+      </c>
+      <c r="D84" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>21</v>
+      </c>
+      <c r="B85" s="1">
+        <v>164</v>
+      </c>
+      <c r="C85" s="1">
+        <v>450</v>
+      </c>
+      <c r="D85" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>22</v>
+      </c>
+      <c r="B86" s="1">
+        <v>164</v>
+      </c>
+      <c r="C86" s="1">
+        <v>710</v>
+      </c>
+      <c r="D86" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>22</v>
+      </c>
+      <c r="B87" s="1">
+        <v>164</v>
+      </c>
+      <c r="C87" s="1">
+        <v>710</v>
+      </c>
+      <c r="D87" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>22</v>
+      </c>
+      <c r="B88" s="1">
+        <v>164</v>
+      </c>
+      <c r="C88" s="1">
+        <v>710</v>
+      </c>
+      <c r="D88" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>22</v>
+      </c>
+      <c r="B89" s="1">
+        <v>164</v>
+      </c>
+      <c r="C89" s="1">
+        <v>710</v>
+      </c>
+      <c r="D89" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>23</v>
+      </c>
+      <c r="B90" s="1">
+        <v>104</v>
+      </c>
+      <c r="C90" s="1">
+        <v>560</v>
+      </c>
+      <c r="D90" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>23</v>
+      </c>
+      <c r="B91" s="1">
+        <v>104</v>
+      </c>
+      <c r="C91" s="1">
+        <v>560</v>
+      </c>
+      <c r="D91" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>23</v>
+      </c>
+      <c r="B92" s="1">
+        <v>104</v>
+      </c>
+      <c r="C92" s="1">
+        <v>560</v>
+      </c>
+      <c r="D92" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>23</v>
+      </c>
+      <c r="B93" s="1">
+        <v>104</v>
+      </c>
+      <c r="C93" s="1">
+        <v>560</v>
+      </c>
+      <c r="D93" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>24</v>
+      </c>
+      <c r="B94" s="1">
+        <v>104</v>
+      </c>
+      <c r="C94" s="1">
+        <v>560</v>
+      </c>
+      <c r="D94" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>24</v>
+      </c>
+      <c r="B95" s="1">
+        <v>104</v>
+      </c>
+      <c r="C95" s="1">
+        <v>560</v>
+      </c>
+      <c r="D95" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>24</v>
+      </c>
+      <c r="B96" s="1">
+        <v>104</v>
+      </c>
+      <c r="C96" s="1">
+        <v>560</v>
+      </c>
+      <c r="D96" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>24</v>
+      </c>
+      <c r="B97" s="1">
+        <v>104</v>
+      </c>
+      <c r="C97" s="1">
+        <v>560</v>
+      </c>
+      <c r="D97" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>25</v>
+      </c>
+      <c r="B98" s="1">
+        <v>104</v>
+      </c>
+      <c r="C98" s="1">
+        <v>710</v>
+      </c>
+      <c r="D98" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>25</v>
+      </c>
+      <c r="B99" s="1">
+        <v>104</v>
+      </c>
+      <c r="C99" s="1">
+        <v>710</v>
+      </c>
+      <c r="D99" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>25</v>
+      </c>
+      <c r="B100" s="1">
+        <v>104</v>
+      </c>
+      <c r="C100" s="1">
+        <v>710</v>
+      </c>
+      <c r="D100" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>25</v>
+      </c>
+      <c r="B101" s="1">
+        <v>104</v>
+      </c>
+      <c r="C101" s="1">
+        <v>710</v>
+      </c>
+      <c r="D101" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>26</v>
+      </c>
+      <c r="B102" s="1">
+        <v>104</v>
+      </c>
+      <c r="C102" s="1">
+        <v>450</v>
+      </c>
+      <c r="D102" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>26</v>
+      </c>
+      <c r="B103" s="1">
+        <v>104</v>
+      </c>
+      <c r="C103" s="1">
+        <v>450</v>
+      </c>
+      <c r="D103" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>26</v>
+      </c>
+      <c r="B104" s="1">
+        <v>104</v>
+      </c>
+      <c r="C104" s="1">
+        <v>450</v>
+      </c>
+      <c r="D104" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>26</v>
+      </c>
+      <c r="B105" s="1">
+        <v>104</v>
+      </c>
+      <c r="C105" s="1">
+        <v>450</v>
+      </c>
+      <c r="D105" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
-        <v>164</v>
-      </c>
-      <c r="C27" s="1">
-        <v>710</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="B106" s="1">
+        <v>164</v>
+      </c>
+      <c r="C106" s="1">
+        <v>710</v>
+      </c>
+      <c r="D106" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>27</v>
+      </c>
+      <c r="B107" s="1">
+        <v>164</v>
+      </c>
+      <c r="C107" s="1">
+        <v>710</v>
+      </c>
+      <c r="D107" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>27</v>
+      </c>
+      <c r="B108" s="1">
+        <v>164</v>
+      </c>
+      <c r="C108" s="1">
+        <v>710</v>
+      </c>
+      <c r="D108" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>27</v>
+      </c>
+      <c r="B109" s="1">
+        <v>164</v>
+      </c>
+      <c r="C109" s="1">
+        <v>710</v>
+      </c>
+      <c r="D109" s="4">
         <v>15</v>
       </c>
     </row>

--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important\M.Teh thesis\For ML pushpendra\ML for thesis\ML-in-Friction-Stir-Welding\ML-in-Friction-Stir-Welding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important\M.Teh thesis\For ML pushpendra\ML for thesis\ML-in-Friction-Stir-Welding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Run order</t>
   </si>
@@ -37,12 +37,15 @@
   <si>
     <t>Tool Shoulder Diameter (mm)</t>
   </si>
+  <si>
+    <t>Vickers Hardness</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +58,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -152,6 +161,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,21 +447,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="53.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +475,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -474,8 +492,11 @@
       <c r="D2" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -488,8 +509,11 @@
       <c r="D3" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="10">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -502,8 +526,11 @@
       <c r="D4" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -516,8 +543,11 @@
       <c r="D5" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -530,8 +560,11 @@
       <c r="D6" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="10">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -544,8 +577,11 @@
       <c r="D7" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="10">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -558,8 +594,11 @@
       <c r="D8" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -572,8 +611,11 @@
       <c r="D9" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -586,8 +628,11 @@
       <c r="D10" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -600,8 +645,11 @@
       <c r="D11" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="10">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -614,8 +662,11 @@
       <c r="D12" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -628,8 +679,11 @@
       <c r="D13" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="10">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -642,8 +696,11 @@
       <c r="D14" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -656,8 +713,11 @@
       <c r="D15" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -670,8 +730,11 @@
       <c r="D16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -684,8 +747,11 @@
       <c r="D17" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -698,8 +764,11 @@
       <c r="D18" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -712,8 +781,11 @@
       <c r="D19" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -726,8 +798,11 @@
       <c r="D20" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -740,8 +815,11 @@
       <c r="D21" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -754,8 +832,11 @@
       <c r="D22" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -768,8 +849,11 @@
       <c r="D23" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>6</v>
       </c>
@@ -782,8 +866,11 @@
       <c r="D24" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -796,8 +883,11 @@
       <c r="D25" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -810,8 +900,11 @@
       <c r="D26" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -824,8 +917,11 @@
       <c r="D27" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="10">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -838,8 +934,11 @@
       <c r="D28" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -852,8 +951,11 @@
       <c r="D29" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -866,8 +968,11 @@
       <c r="D30" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="10">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -880,8 +985,11 @@
       <c r="D31" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -894,8 +1002,11 @@
       <c r="D32" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="10">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -908,8 +1019,11 @@
       <c r="D33" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>9</v>
       </c>
@@ -922,8 +1036,11 @@
       <c r="D34" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -936,8 +1053,11 @@
       <c r="D35" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -950,8 +1070,11 @@
       <c r="D36" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>9</v>
       </c>
@@ -964,8 +1087,11 @@
       <c r="D37" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>10</v>
       </c>
@@ -978,8 +1104,11 @@
       <c r="D38" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="10">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -992,8 +1121,11 @@
       <c r="D39" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>10</v>
       </c>
@@ -1006,8 +1138,11 @@
       <c r="D40" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>10</v>
       </c>
@@ -1020,8 +1155,11 @@
       <c r="D41" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>11</v>
       </c>
@@ -1034,8 +1172,11 @@
       <c r="D42" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>11</v>
       </c>
@@ -1048,8 +1189,11 @@
       <c r="D43" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="10">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>11</v>
       </c>
@@ -1062,8 +1206,11 @@
       <c r="D44" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>11</v>
       </c>
@@ -1076,8 +1223,11 @@
       <c r="D45" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="10">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>12</v>
       </c>
@@ -1090,8 +1240,11 @@
       <c r="D46" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>12</v>
       </c>
@@ -1104,8 +1257,11 @@
       <c r="D47" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>12</v>
       </c>
@@ -1118,8 +1274,11 @@
       <c r="D48" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>12</v>
       </c>
@@ -1132,8 +1291,11 @@
       <c r="D49" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>13</v>
       </c>
@@ -1146,8 +1308,12 @@
       <c r="D50" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="8">
+        <v>178</v>
+      </c>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>13</v>
       </c>
@@ -1160,8 +1326,12 @@
       <c r="D51" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="8">
+        <v>172</v>
+      </c>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>13</v>
       </c>
@@ -1174,8 +1344,12 @@
       <c r="D52" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E52" s="8">
+        <v>170</v>
+      </c>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>13</v>
       </c>
@@ -1188,8 +1362,12 @@
       <c r="D53" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E53" s="8">
+        <v>182</v>
+      </c>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>14</v>
       </c>
@@ -1202,8 +1380,12 @@
       <c r="D54" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E54" s="8">
+        <v>171</v>
+      </c>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>14</v>
       </c>
@@ -1216,8 +1398,12 @@
       <c r="D55" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E55" s="8">
+        <v>163</v>
+      </c>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>14</v>
       </c>
@@ -1230,8 +1416,12 @@
       <c r="D56" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="8">
+        <v>176</v>
+      </c>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>14</v>
       </c>
@@ -1244,8 +1434,12 @@
       <c r="D57" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E57" s="8">
+        <v>178</v>
+      </c>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>15</v>
       </c>
@@ -1258,8 +1452,12 @@
       <c r="D58" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="8">
+        <v>180</v>
+      </c>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>15</v>
       </c>
@@ -1272,8 +1470,12 @@
       <c r="D59" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E59" s="8">
+        <v>168</v>
+      </c>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>15</v>
       </c>
@@ -1286,8 +1488,12 @@
       <c r="D60" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E60" s="8">
+        <v>169</v>
+      </c>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>15</v>
       </c>
@@ -1300,8 +1506,12 @@
       <c r="D61" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E61" s="8">
+        <v>172</v>
+      </c>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>16</v>
       </c>
@@ -1314,8 +1524,11 @@
       <c r="D62" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E62" s="10">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>16</v>
       </c>
@@ -1328,8 +1541,11 @@
       <c r="D63" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E63" s="10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>16</v>
       </c>
@@ -1342,8 +1558,11 @@
       <c r="D64" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E64" s="10">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>16</v>
       </c>
@@ -1356,8 +1575,11 @@
       <c r="D65" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E65" s="10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>17</v>
       </c>
@@ -1370,8 +1592,11 @@
       <c r="D66" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E66" s="10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>17</v>
       </c>
@@ -1384,8 +1609,11 @@
       <c r="D67" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E67" s="10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -1398,8 +1626,11 @@
       <c r="D68" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E68" s="10">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>17</v>
       </c>
@@ -1412,8 +1643,11 @@
       <c r="D69" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E69" s="10">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>18</v>
       </c>
@@ -1426,8 +1660,11 @@
       <c r="D70" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E70" s="10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>18</v>
       </c>
@@ -1440,8 +1677,11 @@
       <c r="D71" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E71" s="10">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>18</v>
       </c>
@@ -1454,8 +1694,11 @@
       <c r="D72" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E72" s="10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>18</v>
       </c>
@@ -1468,8 +1711,11 @@
       <c r="D73" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E73" s="10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>19</v>
       </c>
@@ -1482,8 +1728,11 @@
       <c r="D74" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E74" s="10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>19</v>
       </c>
@@ -1496,8 +1745,11 @@
       <c r="D75" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E75" s="10">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>19</v>
       </c>
@@ -1510,8 +1762,11 @@
       <c r="D76" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E76" s="10">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>19</v>
       </c>
@@ -1524,8 +1779,11 @@
       <c r="D77" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E77" s="10">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>20</v>
       </c>
@@ -1538,8 +1796,11 @@
       <c r="D78" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E78" s="10">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>20</v>
       </c>
@@ -1552,8 +1813,11 @@
       <c r="D79" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E79" s="10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>20</v>
       </c>
@@ -1566,8 +1830,11 @@
       <c r="D80" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E80" s="10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>20</v>
       </c>
@@ -1580,8 +1847,11 @@
       <c r="D81" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E81" s="10">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>21</v>
       </c>
@@ -1594,8 +1864,11 @@
       <c r="D82" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E82" s="10">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>21</v>
       </c>
@@ -1608,8 +1881,11 @@
       <c r="D83" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E83" s="10">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>21</v>
       </c>
@@ -1622,8 +1898,11 @@
       <c r="D84" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E84" s="10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>21</v>
       </c>
@@ -1636,8 +1915,11 @@
       <c r="D85" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E85" s="10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>22</v>
       </c>
@@ -1650,8 +1932,11 @@
       <c r="D86" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E86" s="10">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>22</v>
       </c>
@@ -1664,8 +1949,11 @@
       <c r="D87" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E87" s="10">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>22</v>
       </c>
@@ -1678,8 +1966,11 @@
       <c r="D88" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E88" s="10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>22</v>
       </c>
@@ -1692,8 +1983,11 @@
       <c r="D89" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E89" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>23</v>
       </c>
@@ -1706,8 +2000,11 @@
       <c r="D90" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E90" s="10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>23</v>
       </c>
@@ -1720,8 +2017,11 @@
       <c r="D91" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E91" s="10">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>23</v>
       </c>
@@ -1734,8 +2034,11 @@
       <c r="D92" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E92" s="10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>23</v>
       </c>
@@ -1748,8 +2051,11 @@
       <c r="D93" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E93" s="10">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>24</v>
       </c>
@@ -1762,8 +2068,11 @@
       <c r="D94" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E94" s="10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>24</v>
       </c>
@@ -1776,8 +2085,11 @@
       <c r="D95" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E95" s="10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>24</v>
       </c>
@@ -1790,8 +2102,11 @@
       <c r="D96" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E96" s="10">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>24</v>
       </c>
@@ -1804,8 +2119,11 @@
       <c r="D97" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E97" s="10">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>25</v>
       </c>
@@ -1818,8 +2136,11 @@
       <c r="D98" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E98" s="10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>25</v>
       </c>
@@ -1832,8 +2153,11 @@
       <c r="D99" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E99" s="10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>25</v>
       </c>
@@ -1846,8 +2170,11 @@
       <c r="D100" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E100" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>25</v>
       </c>
@@ -1860,8 +2187,11 @@
       <c r="D101" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E101" s="10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>26</v>
       </c>
@@ -1874,8 +2204,11 @@
       <c r="D102" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E102" s="10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>26</v>
       </c>
@@ -1888,8 +2221,11 @@
       <c r="D103" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E103" s="10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>26</v>
       </c>
@@ -1902,8 +2238,11 @@
       <c r="D104" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E104" s="10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>26</v>
       </c>
@@ -1916,8 +2255,11 @@
       <c r="D105" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E105" s="10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>27</v>
       </c>
@@ -1930,8 +2272,11 @@
       <c r="D106" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E106" s="10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>27</v>
       </c>
@@ -1944,8 +2289,11 @@
       <c r="D107" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E107" s="10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>27</v>
       </c>
@@ -1958,8 +2306,11 @@
       <c r="D108" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E108" s="10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>27</v>
       </c>
@@ -1971,6 +2322,9 @@
       </c>
       <c r="D109" s="4">
         <v>15</v>
+      </c>
+      <c r="E109" s="10">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
